--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H2">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>0.1322311065606667</v>
+        <v>0.3774500114311111</v>
       </c>
       <c r="R2">
-        <v>1.190079959046</v>
+        <v>3.39705010288</v>
       </c>
       <c r="S2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="T2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H3">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
-        <v>1.384626865435</v>
+        <v>2.981925306433333</v>
       </c>
       <c r="R3">
-        <v>12.461641788915</v>
+        <v>26.8373277579</v>
       </c>
       <c r="S3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="T3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H4">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>0.9243323356043334</v>
+        <v>2.198417540922222</v>
       </c>
       <c r="R4">
-        <v>8.318991020438999</v>
+        <v>19.7857578683</v>
       </c>
       <c r="S4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="T4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.035101</v>
+        <v>0.07559333333333333</v>
       </c>
       <c r="H5">
-        <v>0.105303</v>
+        <v>0.22678</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>0.04103595898233332</v>
+        <v>0.00989282394</v>
       </c>
       <c r="R5">
-        <v>0.369323630841</v>
+        <v>0.08903541546000002</v>
       </c>
       <c r="S5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="T5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
     </row>
   </sheetData>
